--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1117.792633758452</v>
+        <v>1190.8809860945</v>
       </c>
       <c r="AB2" t="n">
-        <v>1529.413195038941</v>
+        <v>1629.415903135659</v>
       </c>
       <c r="AC2" t="n">
-        <v>1383.448146249325</v>
+        <v>1473.906736239974</v>
       </c>
       <c r="AD2" t="n">
-        <v>1117792.633758452</v>
+        <v>1190880.9860945</v>
       </c>
       <c r="AE2" t="n">
-        <v>1529413.195038941</v>
+        <v>1629415.903135659</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.262775604486688e-06</v>
+        <v>2.336465481174585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03450520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1383448.146249325</v>
+        <v>1473906.736239974</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.7125022674405</v>
+        <v>588.4949047221534</v>
       </c>
       <c r="AB3" t="n">
-        <v>738.4584560374568</v>
+        <v>805.2046912037015</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.9810174261938</v>
+        <v>728.3570855871014</v>
       </c>
       <c r="AD3" t="n">
-        <v>539712.5022674405</v>
+        <v>588494.9047221533</v>
       </c>
       <c r="AE3" t="n">
-        <v>738458.4560374569</v>
+        <v>805204.6912037015</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977305859653906e-06</v>
+        <v>3.658533527564906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.685546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>667981.0174261938</v>
+        <v>728357.0855871014</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.0147978122653</v>
+        <v>487.7118594124064</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.6794143326995</v>
+        <v>667.3088823767464</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.3514140876388</v>
+        <v>603.6218592166076</v>
       </c>
       <c r="AD4" t="n">
-        <v>439014.7978122653</v>
+        <v>487711.8594124064</v>
       </c>
       <c r="AE4" t="n">
-        <v>600679.4143326995</v>
+        <v>667308.8823767464</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.248627553305538e-06</v>
+        <v>4.160549696754801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>543351.4140876387</v>
+        <v>603621.8592166076</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>398.0846857078245</v>
+        <v>434.5862362028384</v>
       </c>
       <c r="AB5" t="n">
-        <v>544.6770292422979</v>
+        <v>594.6200609643321</v>
       </c>
       <c r="AC5" t="n">
-        <v>492.693818030424</v>
+        <v>537.8703569003926</v>
       </c>
       <c r="AD5" t="n">
-        <v>398084.6857078245</v>
+        <v>434586.2362028384</v>
       </c>
       <c r="AE5" t="n">
-        <v>544677.0292422979</v>
+        <v>594620.0609643321</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>4.442825822169905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>492693.8180304241</v>
+        <v>537870.3569003926</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.436118642854</v>
+        <v>417.9376691378681</v>
       </c>
       <c r="AB6" t="n">
-        <v>521.8977253010638</v>
+        <v>571.8407570230979</v>
       </c>
       <c r="AC6" t="n">
-        <v>472.0885388863874</v>
+        <v>517.2650777563558</v>
       </c>
       <c r="AD6" t="n">
-        <v>381436.118642854</v>
+        <v>417937.669137868</v>
       </c>
       <c r="AE6" t="n">
-        <v>521897.7253010638</v>
+        <v>571840.7570230979</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467010705904012e-06</v>
+        <v>4.564615704922444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.160481770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>472088.5388863874</v>
+        <v>517265.0777563559</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.9645469185278</v>
+        <v>399.5762676640973</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.2051765569728</v>
+        <v>546.7178774788221</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.3750684785729</v>
+        <v>494.5398905756028</v>
       </c>
       <c r="AD7" t="n">
-        <v>350964.5469185278</v>
+        <v>399576.2676640973</v>
       </c>
       <c r="AE7" t="n">
-        <v>480205.1765569728</v>
+        <v>546717.877478822</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534981178367325e-06</v>
+        <v>4.690378874630029e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.994466145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>434375.0684785729</v>
+        <v>494539.8905756028</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.3549349796467</v>
+        <v>372.9417368206812</v>
       </c>
       <c r="AB8" t="n">
-        <v>460.2156609716057</v>
+        <v>510.2753373462891</v>
       </c>
       <c r="AC8" t="n">
-        <v>416.2933242052118</v>
+        <v>461.5753753258925</v>
       </c>
       <c r="AD8" t="n">
-        <v>336354.9349796467</v>
+        <v>372941.7368206813</v>
       </c>
       <c r="AE8" t="n">
-        <v>460215.6609716057</v>
+        <v>510275.3373462891</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.586892693050845e-06</v>
+        <v>4.786428767978131e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.8740234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>416293.3242052118</v>
+        <v>461575.3753258925</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>327.7060578268104</v>
+        <v>364.2928596678449</v>
       </c>
       <c r="AB9" t="n">
-        <v>448.3818856895644</v>
+        <v>498.4415620642478</v>
       </c>
       <c r="AC9" t="n">
-        <v>405.5889478272806</v>
+        <v>450.8709989479613</v>
       </c>
       <c r="AD9" t="n">
-        <v>327706.0578268104</v>
+        <v>364292.859667845</v>
       </c>
       <c r="AE9" t="n">
-        <v>448381.8856895644</v>
+        <v>498441.5620642478</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.610514299552518e-06</v>
+        <v>4.830134924483651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.821940104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>405588.9478272806</v>
+        <v>450870.9989479613</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>315.1004630676842</v>
+        <v>351.6872649087187</v>
       </c>
       <c r="AB10" t="n">
-        <v>431.1343548205361</v>
+        <v>481.1940311952195</v>
       </c>
       <c r="AC10" t="n">
-        <v>389.9874970973307</v>
+        <v>435.2695482180114</v>
       </c>
       <c r="AD10" t="n">
-        <v>315100.4630676842</v>
+        <v>351687.2649087187</v>
       </c>
       <c r="AE10" t="n">
-        <v>431134.3548205361</v>
+        <v>481194.0311952195</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.646086758355433e-06</v>
+        <v>4.895953286652044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>389987.4970973307</v>
+        <v>435269.5482180114</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>305.9061308821825</v>
+        <v>342.4929327232171</v>
       </c>
       <c r="AB11" t="n">
-        <v>418.5542638990242</v>
+        <v>468.6139402737077</v>
       </c>
       <c r="AC11" t="n">
-        <v>378.6080323970995</v>
+        <v>423.8900835177802</v>
       </c>
       <c r="AD11" t="n">
-        <v>305906.1308821825</v>
+        <v>342492.9327232171</v>
       </c>
       <c r="AE11" t="n">
-        <v>418554.2638990242</v>
+        <v>468613.9402737077</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.6641064028409e-06</v>
+        <v>4.929294346753094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.704752604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>378608.0323970995</v>
+        <v>423890.0835177802</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>305.8323703145575</v>
+        <v>342.4191721555919</v>
       </c>
       <c r="AB12" t="n">
-        <v>418.453341436313</v>
+        <v>468.5130178109965</v>
       </c>
       <c r="AC12" t="n">
-        <v>378.5167418325839</v>
+        <v>423.7987929532646</v>
       </c>
       <c r="AD12" t="n">
-        <v>305832.3703145575</v>
+        <v>342419.172155592</v>
       </c>
       <c r="AE12" t="n">
-        <v>418453.341436313</v>
+        <v>468513.0178109965</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.665880357479365e-06</v>
+        <v>4.932576627281177e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.699869791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>378516.7418325839</v>
+        <v>423798.7929532646</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>306.3689551966951</v>
+        <v>342.9557570377296</v>
       </c>
       <c r="AB13" t="n">
-        <v>419.1875205445081</v>
+        <v>469.2471969191915</v>
       </c>
       <c r="AC13" t="n">
-        <v>379.1808519171196</v>
+        <v>424.4629030378003</v>
       </c>
       <c r="AD13" t="n">
-        <v>306368.9551966951</v>
+        <v>342955.7570377296</v>
       </c>
       <c r="AE13" t="n">
-        <v>419187.5205445081</v>
+        <v>469247.1969191915</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.667467580050624e-06</v>
+        <v>4.935513404595777e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>379180.8519171196</v>
+        <v>424462.9030378003</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.0231808297112</v>
+        <v>839.7564901472767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1068.630372322145</v>
+        <v>1148.991877261173</v>
       </c>
       <c r="AC2" t="n">
-        <v>966.6417894198665</v>
+        <v>1039.333705115594</v>
       </c>
       <c r="AD2" t="n">
-        <v>781023.1808297113</v>
+        <v>839756.4901472768</v>
       </c>
       <c r="AE2" t="n">
-        <v>1068630.372322145</v>
+        <v>1148991.877261173</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550009808982215e-06</v>
+        <v>2.954557912651815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1416015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>966641.7894198665</v>
+        <v>1039333.705115594</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.9588256306037</v>
+        <v>477.2500515373065</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.7075630750908</v>
+        <v>652.9945752996452</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.9951219675986</v>
+        <v>590.6736895166889</v>
       </c>
       <c r="AD3" t="n">
-        <v>441958.8256306037</v>
+        <v>477250.0515373065</v>
       </c>
       <c r="AE3" t="n">
-        <v>604707.5630750908</v>
+        <v>652994.5752996452</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.212395605966264e-06</v>
+        <v>4.217167469292279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.106119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>546995.1219675986</v>
+        <v>590673.6895166889</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.2222446943788</v>
+        <v>403.4281297465101</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.8179200097843</v>
+        <v>551.988165112141</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.7342448369416</v>
+        <v>499.3071893540931</v>
       </c>
       <c r="AD4" t="n">
-        <v>368222.2446943789</v>
+        <v>403428.1297465101</v>
       </c>
       <c r="AE4" t="n">
-        <v>503817.9200097843</v>
+        <v>551988.1651121411</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456468062801886e-06</v>
+        <v>4.682407240308676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>455734.2448369416</v>
+        <v>499307.189354093</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.3749444013005</v>
+        <v>384.5808294534316</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.0302122645887</v>
+        <v>526.2004573669454</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.4076797256723</v>
+        <v>475.9806242428238</v>
       </c>
       <c r="AD5" t="n">
-        <v>349374.9444013005</v>
+        <v>384580.8294534316</v>
       </c>
       <c r="AE5" t="n">
-        <v>478030.2122645887</v>
+        <v>526200.4573669455</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537986524839584e-06</v>
+        <v>4.837794009892308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.194661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>432407.6797256723</v>
+        <v>475980.6242428238</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.4547652123019</v>
+        <v>344.7459016104536</v>
       </c>
       <c r="AB6" t="n">
-        <v>423.409661944191</v>
+        <v>471.6965516991971</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.0000380674295</v>
+        <v>426.6784948352933</v>
       </c>
       <c r="AD6" t="n">
-        <v>309454.7652123019</v>
+        <v>344745.9016104536</v>
       </c>
       <c r="AE6" t="n">
-        <v>423409.661944191</v>
+        <v>471696.5516991972</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.654855409988418e-06</v>
+        <v>5.060564141641354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.921223958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>383000.0380674295</v>
+        <v>426678.4948352933</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>292.397728980165</v>
+        <v>327.6888653783167</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.0714724680519</v>
+        <v>448.3583622230579</v>
       </c>
       <c r="AC7" t="n">
-        <v>361.8892126395385</v>
+        <v>405.5676694074021</v>
       </c>
       <c r="AD7" t="n">
-        <v>292397.728980165</v>
+        <v>327688.8653783167</v>
       </c>
       <c r="AE7" t="n">
-        <v>400071.4724680519</v>
+        <v>448358.3622230579</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.718408902904065e-06</v>
+        <v>5.181706907501579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.782877604166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>361889.2126395385</v>
+        <v>405567.6694074022</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>281.1539256740098</v>
+        <v>316.4450620721615</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.6872047429773</v>
+        <v>432.9740944979833</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.9731978341896</v>
+        <v>391.6516546020533</v>
       </c>
       <c r="AD8" t="n">
-        <v>281153.9256740098</v>
+        <v>316445.0620721615</v>
       </c>
       <c r="AE8" t="n">
-        <v>384687.2047429773</v>
+        <v>432974.0944979833</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.747867588830011e-06</v>
+        <v>5.237859709306092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.721028645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>347973.1978341896</v>
+        <v>391651.6546020533</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>277.7029648970729</v>
+        <v>312.9941012952246</v>
       </c>
       <c r="AB9" t="n">
-        <v>379.9654479623277</v>
+        <v>428.2523377173338</v>
       </c>
       <c r="AC9" t="n">
-        <v>343.702078893658</v>
+        <v>387.3805356615217</v>
       </c>
       <c r="AD9" t="n">
-        <v>277702.9648970729</v>
+        <v>312994.1012952246</v>
       </c>
       <c r="AE9" t="n">
-        <v>379965.4479623277</v>
+        <v>428252.3377173338</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759457891489399e-06</v>
+        <v>5.259952614934096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>343702.078893658</v>
+        <v>387380.5356615217</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.6115611790368</v>
+        <v>353.0019781611604</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.0431265058642</v>
+        <v>482.9928798682654</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.0460281165507</v>
+        <v>436.8967172984018</v>
       </c>
       <c r="AD2" t="n">
-        <v>321611.5611790367</v>
+        <v>353001.9781611604</v>
       </c>
       <c r="AE2" t="n">
-        <v>440043.1265058642</v>
+        <v>482992.8798682654</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46914230263382e-06</v>
+        <v>5.25862692282431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1044921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>398046.0281165507</v>
+        <v>436896.7172984018</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4066913885615</v>
+        <v>251.7970188621337</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.5701588146526</v>
+        <v>344.5197897074834</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.7887261138475</v>
+        <v>311.6393045144657</v>
       </c>
       <c r="AD3" t="n">
-        <v>220406.6913885615</v>
+        <v>251797.0188621337</v>
       </c>
       <c r="AE3" t="n">
-        <v>301570.1588146526</v>
+        <v>344519.7897074834</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.953594273403747e-06</v>
+        <v>6.290382838061991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.939127604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>272788.7261138475</v>
+        <v>311639.3045144657</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.6772060372441</v>
+        <v>248.0675335108163</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.4673124237012</v>
+        <v>339.416943316532</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.1728882205569</v>
+        <v>307.0234666211751</v>
       </c>
       <c r="AD4" t="n">
-        <v>216677.2060372441</v>
+        <v>248067.5335108163</v>
       </c>
       <c r="AE4" t="n">
-        <v>296467.3124237012</v>
+        <v>339416.9433165319</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.974071664826725e-06</v>
+        <v>6.333994322799513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>268172.8882205569</v>
+        <v>307023.4666211751</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.8681039941353</v>
+        <v>492.5564025159937</v>
       </c>
       <c r="AB2" t="n">
-        <v>599.1104572621729</v>
+        <v>673.9373999772321</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.9321960778782</v>
+        <v>609.617760400486</v>
       </c>
       <c r="AD2" t="n">
-        <v>437868.1039941353</v>
+        <v>492556.4025159937</v>
       </c>
       <c r="AE2" t="n">
-        <v>599110.4572621728</v>
+        <v>673937.3999772321</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.099024509614813e-06</v>
+        <v>4.261745453750894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>541932.1960778782</v>
+        <v>609617.7604004859</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.606938231516</v>
+        <v>332.4370750240965</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.9354306136157</v>
+        <v>454.8550721366393</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.8117684638419</v>
+        <v>411.4443424450209</v>
       </c>
       <c r="AD3" t="n">
-        <v>299606.938231516</v>
+        <v>332437.0750240965</v>
       </c>
       <c r="AE3" t="n">
-        <v>409935.4306136157</v>
+        <v>454855.0721366393</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.647752697067905e-06</v>
+        <v>5.375853386989043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.337890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>370811.7684638419</v>
+        <v>411444.3424450209</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.6722487540448</v>
+        <v>287.587636892649</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.4538060917846</v>
+        <v>393.4900922676263</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.1978638964771</v>
+        <v>355.9359501284164</v>
       </c>
       <c r="AD4" t="n">
-        <v>254672.2487540448</v>
+        <v>287587.636892649</v>
       </c>
       <c r="AE4" t="n">
-        <v>348453.8060917846</v>
+        <v>393490.0922676263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825919233693035e-06</v>
+        <v>5.737593054150923e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.939127604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>315197.8638964772</v>
+        <v>355935.9501284164</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.1887099720539</v>
+        <v>271.1040981106578</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.9003011278681</v>
+        <v>370.9365873036983</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.7968337922667</v>
+        <v>335.5349200242027</v>
       </c>
       <c r="AD5" t="n">
-        <v>238188.7099720539</v>
+        <v>271104.0981106578</v>
       </c>
       <c r="AE5" t="n">
-        <v>325900.3011278681</v>
+        <v>370936.5873036984</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.903557776562666e-06</v>
+        <v>5.895226138278756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.779622395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>294796.8337922667</v>
+        <v>335534.9200242027</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.209679472808</v>
+        <v>272.1250676114119</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.2972366407947</v>
+        <v>372.3335228166256</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.0604477404513</v>
+        <v>336.7985339723874</v>
       </c>
       <c r="AD6" t="n">
-        <v>239209.679472808</v>
+        <v>272125.0676114119</v>
       </c>
       <c r="AE6" t="n">
-        <v>327297.2366407947</v>
+        <v>372333.5228166256</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.904382621639634e-06</v>
+        <v>5.89690085896006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.777994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>296060.4477404513</v>
+        <v>336798.5339723874</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.5211762535155</v>
+        <v>267.7459819990706</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.9869520446552</v>
+        <v>366.3418646901976</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.9706534636618</v>
+        <v>331.3787112882007</v>
       </c>
       <c r="AD2" t="n">
-        <v>237521.1762535155</v>
+        <v>267745.9819990706</v>
       </c>
       <c r="AE2" t="n">
-        <v>324986.9520446552</v>
+        <v>366341.8646901976</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795220318143615e-06</v>
+        <v>6.224409674777521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>293970.6534636618</v>
+        <v>331378.7112882007</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.8894809903369</v>
+        <v>239.9436945352964</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.1800475612327</v>
+        <v>328.3015484317501</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.7719868818014</v>
+        <v>296.9689094236386</v>
       </c>
       <c r="AD3" t="n">
-        <v>209889.4809903369</v>
+        <v>239943.6945352964</v>
       </c>
       <c r="AE3" t="n">
-        <v>287180.0475612327</v>
+        <v>328301.54843175</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.004425298706262e-06</v>
+        <v>6.690268303728314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.064453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>259771.9868818014</v>
+        <v>296968.9094236386</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>848.0841806025999</v>
+        <v>919.2622217135793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1160.38619073392</v>
+        <v>1257.775126735515</v>
       </c>
       <c r="AC2" t="n">
-        <v>1049.640561302521</v>
+        <v>1137.734833938354</v>
       </c>
       <c r="AD2" t="n">
-        <v>848084.1806025999</v>
+        <v>919262.2217135793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1160386.19073392</v>
+        <v>1257775.126735514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474060767948808e-06</v>
+        <v>2.787100545379872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.56966145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1049640.561302521</v>
+        <v>1137734.833938354</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.7243780060483</v>
+        <v>501.3561584973748</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.2246402973481</v>
+        <v>685.9776143287927</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.408814977768</v>
+        <v>620.5088735928806</v>
       </c>
       <c r="AD3" t="n">
-        <v>465724.3780060483</v>
+        <v>501356.1584973749</v>
       </c>
       <c r="AE3" t="n">
-        <v>637224.640297348</v>
+        <v>685977.6143287927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148778583096285e-06</v>
+        <v>4.062832476833294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.249348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>576408.814977768</v>
+        <v>620508.8735928806</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.8392194651349</v>
+        <v>421.3856591018898</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.922242097207</v>
+        <v>576.5584490064541</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.5380842549692</v>
+        <v>521.5325198381428</v>
       </c>
       <c r="AD4" t="n">
-        <v>385839.2194651349</v>
+        <v>421385.6591018898</v>
       </c>
       <c r="AE4" t="n">
-        <v>527922.242097207</v>
+        <v>576558.4490064541</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.400804687122857e-06</v>
+        <v>4.539354277871295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4892578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>477538.0842549692</v>
+        <v>521532.5198381428</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.9757863655838</v>
+        <v>389.5222260023388</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.3252872149435</v>
+        <v>532.9614941241904</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.1019615579584</v>
+        <v>482.096397141132</v>
       </c>
       <c r="AD5" t="n">
-        <v>353975.7863655838</v>
+        <v>389522.2260023388</v>
       </c>
       <c r="AE5" t="n">
-        <v>484325.2872149435</v>
+        <v>532961.4941241904</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.53576739379869e-06</v>
+        <v>4.794536860272958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.144205729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>438101.9615579583</v>
+        <v>482096.397141132</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.5714352143777</v>
+        <v>371.9096748156018</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.0929567414443</v>
+        <v>508.8632245795773</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.7093482384195</v>
+        <v>460.298032619723</v>
       </c>
       <c r="AD6" t="n">
-        <v>324571.4352143777</v>
+        <v>371909.6748156018</v>
       </c>
       <c r="AE6" t="n">
-        <v>444092.9567414443</v>
+        <v>508863.2245795773</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.605737421160415e-06</v>
+        <v>4.926833645901054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.978190104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>401709.3482384195</v>
+        <v>460298.032619723</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>308.3629030307642</v>
+        <v>343.9945940135396</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.9157279378513</v>
+        <v>470.6685794997476</v>
       </c>
       <c r="AC7" t="n">
-        <v>381.6486830259053</v>
+        <v>425.7486308597911</v>
       </c>
       <c r="AD7" t="n">
-        <v>308362.9030307642</v>
+        <v>343994.5940135396</v>
       </c>
       <c r="AE7" t="n">
-        <v>421915.7279378513</v>
+        <v>470668.5794997476</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.666901371207122e-06</v>
+        <v>5.04248022047883e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.841471354166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>381648.6830259053</v>
+        <v>425748.6308597911</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>297.2624334901446</v>
+        <v>332.8941244729201</v>
       </c>
       <c r="AB8" t="n">
-        <v>406.727575794222</v>
+        <v>455.4804273561185</v>
       </c>
       <c r="AC8" t="n">
-        <v>367.9100668061586</v>
+        <v>412.0100146400445</v>
       </c>
       <c r="AD8" t="n">
-        <v>297262.4334901446</v>
+        <v>332894.1244729201</v>
       </c>
       <c r="AE8" t="n">
-        <v>406727.5757942221</v>
+        <v>455480.4273561185</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.695233967785879e-06</v>
+        <v>5.096050464727689e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.779622395833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>367910.0668061586</v>
+        <v>412010.0146400445</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>285.099921800333</v>
+        <v>320.7316127831086</v>
       </c>
       <c r="AB9" t="n">
-        <v>390.0862907280755</v>
+        <v>438.8391422899718</v>
       </c>
       <c r="AC9" t="n">
-        <v>352.8570026305349</v>
+        <v>396.9569504644207</v>
       </c>
       <c r="AD9" t="n">
-        <v>285099.9218003331</v>
+        <v>320731.6127831086</v>
       </c>
       <c r="AE9" t="n">
-        <v>390086.2907280755</v>
+        <v>438839.1422899719</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.733808415154929e-06</v>
+        <v>5.168985628350293e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.6982421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>352857.0026305349</v>
+        <v>396956.9504644207</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>286.0744064559374</v>
+        <v>321.706097438713</v>
       </c>
       <c r="AB10" t="n">
-        <v>391.4196236251022</v>
+        <v>440.1724751869986</v>
       </c>
       <c r="AC10" t="n">
-        <v>354.0630841072138</v>
+        <v>398.1630319410996</v>
       </c>
       <c r="AD10" t="n">
-        <v>286074.4064559374</v>
+        <v>321706.097438713</v>
       </c>
       <c r="AE10" t="n">
-        <v>391419.6236251022</v>
+        <v>440172.4751869985</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731224022899434e-06</v>
+        <v>5.164099153368134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.704752604166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>354063.0841072138</v>
+        <v>398163.0319410996</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.4740312941742</v>
+        <v>231.7875469025495</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.0339021403962</v>
+        <v>317.1419474167928</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.5941753397217</v>
+        <v>286.874365066947</v>
       </c>
       <c r="AD2" t="n">
-        <v>202474.0312941742</v>
+        <v>231787.5469025495</v>
       </c>
       <c r="AE2" t="n">
-        <v>277033.9021403962</v>
+        <v>317141.9474167929</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.97455626656158e-06</v>
+        <v>6.819368787322389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267903645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>250594.1753397217</v>
+        <v>286874.3650669469</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.4995121346432</v>
+        <v>230.8130277430185</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.7005220335755</v>
+        <v>315.8085673099721</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.3880511588848</v>
+        <v>285.6682408861101</v>
       </c>
       <c r="AD3" t="n">
-        <v>201499.5121346432</v>
+        <v>230813.0277430185</v>
       </c>
       <c r="AE3" t="n">
-        <v>275700.5220335755</v>
+        <v>315808.5673099721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995862827411137e-06</v>
+        <v>6.868215500244251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>249388.0511588848</v>
+        <v>285668.2408861101</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.6743637584067</v>
+        <v>643.56547623712</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.7137467405047</v>
+        <v>880.5546766926259</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.1038733674096</v>
+        <v>796.5157742153316</v>
       </c>
       <c r="AD2" t="n">
-        <v>586674.3637584067</v>
+        <v>643565.47623712</v>
       </c>
       <c r="AE2" t="n">
-        <v>802713.7467405046</v>
+        <v>880554.6766926259</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.801191823905519e-06</v>
+        <v>3.530311082502363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.992513020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>726103.8733674096</v>
+        <v>796515.7742153315</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.5196679908771</v>
+        <v>411.0154898029335</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.1201353347838</v>
+        <v>562.3695258720412</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.3893715414497</v>
+        <v>508.6977676133996</v>
       </c>
       <c r="AD3" t="n">
-        <v>365519.6679908771</v>
+        <v>411015.4898029335</v>
       </c>
       <c r="AE3" t="n">
-        <v>500120.1353347838</v>
+        <v>562369.5258720412</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406531595442385e-06</v>
+        <v>4.71676866895882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.730143229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>452389.3715414497</v>
+        <v>508697.7676133996</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.6182119080098</v>
+        <v>348.7188325619601</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.4745175084498</v>
+        <v>477.1324911003919</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.3906337322225</v>
+        <v>431.5956358094268</v>
       </c>
       <c r="AD4" t="n">
-        <v>314618.2119080098</v>
+        <v>348718.8325619602</v>
       </c>
       <c r="AE4" t="n">
-        <v>430474.5175084498</v>
+        <v>477132.4911003918</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6444680402467e-06</v>
+        <v>5.18312081250927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.124674479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>389390.6337322225</v>
+        <v>431595.6358094268</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.0581471455658</v>
+        <v>316.2440191455368</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.9244004517961</v>
+        <v>432.6990186963875</v>
       </c>
       <c r="AC5" t="n">
-        <v>349.0923173209738</v>
+        <v>391.4028316488904</v>
       </c>
       <c r="AD5" t="n">
-        <v>282058.1471455658</v>
+        <v>316244.0191455368</v>
       </c>
       <c r="AE5" t="n">
-        <v>385924.4004517961</v>
+        <v>432699.0186963875</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.738607679219883e-06</v>
+        <v>5.367633203893095e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.914713541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>349092.3173209738</v>
+        <v>391402.8316488904</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>261.8442157890225</v>
+        <v>296.0300877889936</v>
       </c>
       <c r="AB6" t="n">
-        <v>358.2668077940607</v>
+        <v>405.0414260386519</v>
       </c>
       <c r="AC6" t="n">
-        <v>324.0743264888175</v>
+        <v>366.3848408167341</v>
       </c>
       <c r="AD6" t="n">
-        <v>261844.2157890226</v>
+        <v>296030.0877889936</v>
       </c>
       <c r="AE6" t="n">
-        <v>358266.8077940607</v>
+        <v>405041.426038652</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.819313014534102e-06</v>
+        <v>5.525814545766543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.745442708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>324074.3264888175</v>
+        <v>366384.8408167341</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.5709834734893</v>
+        <v>292.7568554734602</v>
       </c>
       <c r="AB7" t="n">
-        <v>353.7882269351297</v>
+        <v>400.562845179721</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.0231751013353</v>
+        <v>362.3336894292518</v>
       </c>
       <c r="AD7" t="n">
-        <v>258570.9834734892</v>
+        <v>292756.8554734602</v>
       </c>
       <c r="AE7" t="n">
-        <v>353788.2269351297</v>
+        <v>400562.845179721</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.831951211309572e-06</v>
+        <v>5.550585236787417e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.719401041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>320023.1751013353</v>
+        <v>362333.6894292518</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>708.1951868104336</v>
+        <v>766.4245731404567</v>
       </c>
       <c r="AB2" t="n">
-        <v>968.983897960632</v>
+        <v>1048.655913236591</v>
       </c>
       <c r="AC2" t="n">
-        <v>876.505434716711</v>
+        <v>948.5736646751077</v>
       </c>
       <c r="AD2" t="n">
-        <v>708195.1868104336</v>
+        <v>766424.5731404567</v>
       </c>
       <c r="AE2" t="n">
-        <v>968983.897960632</v>
+        <v>1048655.913236591</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628792079464698e-06</v>
+        <v>3.131683549882586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.742838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>876505.4347167109</v>
+        <v>948573.6646751077</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.5558241167058</v>
+        <v>454.0539923261525</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.6358586504664</v>
+        <v>621.2567037490355</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.4158749477083</v>
+        <v>561.9648358824868</v>
       </c>
       <c r="AD3" t="n">
-        <v>407555.8241167058</v>
+        <v>454053.9923261525</v>
       </c>
       <c r="AE3" t="n">
-        <v>557635.8586504664</v>
+        <v>621256.7037490355</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275921264224183e-06</v>
+        <v>4.375920827378588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.97265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>504415.8749477083</v>
+        <v>561964.8358824868</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.2852287888339</v>
+        <v>385.1376092408271</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.2757035225249</v>
+        <v>526.9622680354506</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.534303046009</v>
+        <v>476.6697287703348</v>
       </c>
       <c r="AD4" t="n">
-        <v>350285.2287888339</v>
+        <v>385137.6092408272</v>
       </c>
       <c r="AE4" t="n">
-        <v>479275.7035225249</v>
+        <v>526962.2680354506</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517339353943105e-06</v>
+        <v>4.840096132347716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3037109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>433534.303046009</v>
+        <v>476669.7287703348</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.1446922329868</v>
+        <v>362.9970726849799</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.9820446352791</v>
+        <v>496.6686091482047</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.1318284455446</v>
+        <v>449.2672541698703</v>
       </c>
       <c r="AD5" t="n">
-        <v>328144.6922329867</v>
+        <v>362997.0726849799</v>
       </c>
       <c r="AE5" t="n">
-        <v>448982.044635279</v>
+        <v>496668.6091482047</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.613380072187506e-06</v>
+        <v>5.024753917240524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.072591145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>406131.8284455446</v>
+        <v>449267.2541698703</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.7721258654838</v>
+        <v>329.7097576634975</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.3202270375426</v>
+        <v>451.1234362031176</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.8279106325726</v>
+        <v>408.0688486076107</v>
       </c>
       <c r="AD6" t="n">
-        <v>294772.1258654838</v>
+        <v>329709.7576634975</v>
       </c>
       <c r="AE6" t="n">
-        <v>403320.2270375426</v>
+        <v>451123.4362031177</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703375587862209e-06</v>
+        <v>5.197788572525864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.870768229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>364827.9106325726</v>
+        <v>408068.8486076107</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.2108568624878</v>
+        <v>311.1484886605015</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.9238799222477</v>
+        <v>425.7270890878228</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.8553552419644</v>
+        <v>385.0962932170025</v>
       </c>
       <c r="AD7" t="n">
-        <v>276210.8568624878</v>
+        <v>311148.4886605015</v>
       </c>
       <c r="AE7" t="n">
-        <v>377923.8799222477</v>
+        <v>425727.0890878228</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.774357966422539e-06</v>
+        <v>5.334266610497402e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.719401041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>341855.3552419645</v>
+        <v>385096.2932170025</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>272.3064080689744</v>
+        <v>307.2440398669881</v>
       </c>
       <c r="AB8" t="n">
-        <v>372.5816408308389</v>
+        <v>420.3848499964139</v>
       </c>
       <c r="AC8" t="n">
-        <v>337.02297195156</v>
+        <v>380.263909926598</v>
       </c>
       <c r="AD8" t="n">
-        <v>272306.4080689744</v>
+        <v>307244.0398669881</v>
       </c>
       <c r="AE8" t="n">
-        <v>372581.6408308389</v>
+        <v>420384.8499964139</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.777185561172881e-06</v>
+        <v>5.339703235636377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.714518229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>337022.97195156</v>
+        <v>380263.909926598</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>272.0876333618442</v>
+        <v>307.025265159858</v>
       </c>
       <c r="AB9" t="n">
-        <v>372.2823036248844</v>
+        <v>420.0855127904595</v>
       </c>
       <c r="AC9" t="n">
-        <v>336.7522030684195</v>
+        <v>379.9931410434575</v>
       </c>
       <c r="AD9" t="n">
-        <v>272087.6333618442</v>
+        <v>307025.2651598579</v>
       </c>
       <c r="AE9" t="n">
-        <v>372282.3036248845</v>
+        <v>420085.5127904594</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.78508332582039e-06</v>
+        <v>5.354888292059034e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.6982421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>336752.2030684195</v>
+        <v>379993.1410434574</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1016.946849734285</v>
+        <v>1089.503982370503</v>
       </c>
       <c r="AB2" t="n">
-        <v>1391.43154433508</v>
+        <v>1490.70741420273</v>
       </c>
       <c r="AC2" t="n">
-        <v>1258.635270630177</v>
+        <v>1348.436390812217</v>
       </c>
       <c r="AD2" t="n">
-        <v>1016946.849734285</v>
+        <v>1089503.982370503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1391431.54433508</v>
+        <v>1490707.41420273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.329337720980844e-06</v>
+        <v>2.476455348674574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1258635.270630177</v>
+        <v>1348436.390812217</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.6146992382398</v>
+        <v>562.9861209957179</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.1185346959795</v>
+        <v>770.3024479410793</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.9184499811646</v>
+        <v>696.7858634358577</v>
       </c>
       <c r="AD3" t="n">
-        <v>514614.6992382398</v>
+        <v>562986.1209957179</v>
       </c>
       <c r="AE3" t="n">
-        <v>704118.5346959796</v>
+        <v>770302.4479410793</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.031510374873805e-06</v>
+        <v>3.784549745592166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.540690104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>636918.4499811647</v>
+        <v>696785.8634358577</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.6489893609515</v>
+        <v>468.9350702638581</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.550504967327</v>
+        <v>641.6176510902289</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.6207725634517</v>
+        <v>580.3825629862058</v>
       </c>
       <c r="AD4" t="n">
-        <v>420648.9893609515</v>
+        <v>468935.0702638581</v>
       </c>
       <c r="AE4" t="n">
-        <v>575550.504967327</v>
+        <v>641617.6510902289</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297942593500125e-06</v>
+        <v>4.280892760961917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>520620.7725634517</v>
+        <v>580382.5629862058</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.9421788572461</v>
+        <v>418.1354938293341</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.5901392121957</v>
+        <v>572.1114294933712</v>
       </c>
       <c r="AC5" t="n">
-        <v>472.71486978565</v>
+        <v>517.5099176259575</v>
       </c>
       <c r="AD5" t="n">
-        <v>381942.1788572461</v>
+        <v>418135.4938293341</v>
       </c>
       <c r="AE5" t="n">
-        <v>522590.1392121958</v>
+        <v>572111.4294933713</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449463565590685e-06</v>
+        <v>4.5631648396427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.253255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>472714.86978565</v>
+        <v>517509.9176259575</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.6075378109819</v>
+        <v>401.8008527830699</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.2403626991939</v>
+        <v>549.7616529803693</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.4981245749407</v>
+        <v>497.2931724152482</v>
       </c>
       <c r="AD6" t="n">
-        <v>365607.5378109819</v>
+        <v>401800.8527830699</v>
       </c>
       <c r="AE6" t="n">
-        <v>500240.3626991939</v>
+        <v>549761.6529803693</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515812811133445e-06</v>
+        <v>4.686768451735838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.0888671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>452498.1245749407</v>
+        <v>497293.1724152482</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.7620680843368</v>
+        <v>384.9628081326717</v>
       </c>
       <c r="AB7" t="n">
-        <v>460.7727184468876</v>
+        <v>526.7230974475918</v>
       </c>
       <c r="AC7" t="n">
-        <v>416.7972168968878</v>
+        <v>476.4533842877032</v>
       </c>
       <c r="AD7" t="n">
-        <v>336762.0680843368</v>
+        <v>384962.8081326717</v>
       </c>
       <c r="AE7" t="n">
-        <v>460772.7184468876</v>
+        <v>526723.0974475918</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577079986804846e-06</v>
+        <v>4.800904553115459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>416797.2168968879</v>
+        <v>476453.3842877032</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>322.7635344202886</v>
+        <v>359.0421007383972</v>
       </c>
       <c r="AB8" t="n">
-        <v>441.6193071160176</v>
+        <v>491.2572420498423</v>
       </c>
       <c r="AC8" t="n">
-        <v>399.4717802614545</v>
+        <v>444.3723403524742</v>
       </c>
       <c r="AD8" t="n">
-        <v>322763.5344202886</v>
+        <v>359042.1007383972</v>
       </c>
       <c r="AE8" t="n">
-        <v>441619.3071160176</v>
+        <v>491257.2420498423</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.627430123493324e-06</v>
+        <v>4.894703038888265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.830078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>399471.7802614545</v>
+        <v>444372.3403524742</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>311.9177532023095</v>
+        <v>348.1963195204181</v>
       </c>
       <c r="AB9" t="n">
-        <v>426.7796307714808</v>
+        <v>476.4175657053055</v>
       </c>
       <c r="AC9" t="n">
-        <v>386.0483817996237</v>
+        <v>430.9489418906434</v>
       </c>
       <c r="AD9" t="n">
-        <v>311917.7532023095</v>
+        <v>348196.3195204181</v>
       </c>
       <c r="AE9" t="n">
-        <v>426779.6307714808</v>
+        <v>476417.5657053055</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655381507785806e-06</v>
+        <v>4.946774347812609e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>386048.3817996237</v>
+        <v>430948.9418906434</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>301.8410596917435</v>
+        <v>338.119626009852</v>
       </c>
       <c r="AB10" t="n">
-        <v>412.9922541579816</v>
+        <v>462.6301890918063</v>
       </c>
       <c r="AC10" t="n">
-        <v>373.5768530594123</v>
+        <v>418.477413150432</v>
       </c>
       <c r="AD10" t="n">
-        <v>301841.0596917435</v>
+        <v>338119.626009852</v>
       </c>
       <c r="AE10" t="n">
-        <v>412992.2541579816</v>
+        <v>462630.1890918063</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.680509519927532e-06</v>
+        <v>4.993585928562776e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.714518229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>373576.8530594123</v>
+        <v>418477.413150432</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.1843892344427</v>
+        <v>334.4629555525513</v>
       </c>
       <c r="AB11" t="n">
-        <v>407.9890363173876</v>
+        <v>457.6269712512122</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.0511353074642</v>
+        <v>413.9516953984838</v>
       </c>
       <c r="AD11" t="n">
-        <v>298184.3892344427</v>
+        <v>334462.9555525513</v>
       </c>
       <c r="AE11" t="n">
-        <v>407989.0363173875</v>
+        <v>457626.9712512122</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.691614783720505e-06</v>
+        <v>5.014274192714535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.691731770833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>369051.1353074642</v>
+        <v>413951.6953984838</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>299.4406822059365</v>
+        <v>335.7192485240451</v>
       </c>
       <c r="AB12" t="n">
-        <v>409.7079517847198</v>
+        <v>459.3458867185445</v>
       </c>
       <c r="AC12" t="n">
-        <v>370.6059998951072</v>
+        <v>415.5065599861268</v>
       </c>
       <c r="AD12" t="n">
-        <v>299440.6822059365</v>
+        <v>335719.2485240451</v>
       </c>
       <c r="AE12" t="n">
-        <v>409707.9517847198</v>
+        <v>459345.8867185445</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.690203097645127e-06</v>
+        <v>5.011644328627447e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.693359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>370605.9998951072</v>
+        <v>415506.5599861268</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.5129846506909</v>
+        <v>535.9096672611065</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.5097496215774</v>
+        <v>733.2552494125507</v>
       </c>
       <c r="AC2" t="n">
-        <v>608.3263629910551</v>
+        <v>663.2743975388223</v>
       </c>
       <c r="AD2" t="n">
-        <v>491512.9846506909</v>
+        <v>535909.6672611065</v>
       </c>
       <c r="AE2" t="n">
-        <v>672509.7496215773</v>
+        <v>733255.2494125507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994763910457608e-06</v>
+        <v>3.998498982290639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>608326.3629910551</v>
+        <v>663274.3975388223</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.8682795611998</v>
+        <v>354.1444786825064</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.0261358050691</v>
+        <v>484.5560994851367</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.126097580884</v>
+        <v>438.3107454290314</v>
       </c>
       <c r="AD3" t="n">
-        <v>320868.2795611998</v>
+        <v>354144.4786825064</v>
       </c>
       <c r="AE3" t="n">
-        <v>439026.1358050691</v>
+        <v>484556.0994851367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565540068176338e-06</v>
+        <v>5.142618280714552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.4599609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>397126.0975808841</v>
+        <v>438310.7454290314</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.5380568042531</v>
+        <v>316.8142559255597</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.9492781358184</v>
+        <v>433.479241815886</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.9239435207667</v>
+        <v>392.1085913689141</v>
       </c>
       <c r="AD4" t="n">
-        <v>283538.0568042531</v>
+        <v>316814.2559255597</v>
       </c>
       <c r="AE4" t="n">
-        <v>387949.2781358184</v>
+        <v>433479.241815886</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>5.527120734911957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.0107421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>350923.9435207667</v>
+        <v>392108.5913689141</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.482428202565</v>
+        <v>281.8438786698952</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.9846205376442</v>
+        <v>385.6312288705257</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.5369655250445</v>
+        <v>348.827125623951</v>
       </c>
       <c r="AD5" t="n">
-        <v>248482.428202565</v>
+        <v>281843.8786698952</v>
       </c>
       <c r="AE5" t="n">
-        <v>339984.6205376441</v>
+        <v>385631.2288705257</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.863960495981118e-06</v>
+        <v>5.740801238916567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.7861328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>307536.9655250445</v>
+        <v>348827.125623951</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.770905391435</v>
+        <v>279.1323558587651</v>
       </c>
       <c r="AB6" t="n">
-        <v>336.2745954035141</v>
+        <v>381.9212037363937</v>
       </c>
       <c r="AC6" t="n">
-        <v>304.1810199826617</v>
+        <v>345.4711800815675</v>
       </c>
       <c r="AD6" t="n">
-        <v>245770.905391435</v>
+        <v>279132.3558587651</v>
       </c>
       <c r="AE6" t="n">
-        <v>336274.595403514</v>
+        <v>381921.2037363937</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.876381953569716e-06</v>
+        <v>5.765700017797714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>304181.0199826617</v>
+        <v>345471.1800815676</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.2730628847617</v>
+        <v>399.6834667116577</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.8367664140561</v>
+        <v>546.8645519449825</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.1828715142086</v>
+        <v>494.6725666365718</v>
       </c>
       <c r="AD2" t="n">
-        <v>357273.0628847617</v>
+        <v>399683.4667116576</v>
       </c>
       <c r="AE2" t="n">
-        <v>488836.7664140561</v>
+        <v>546864.5519449825</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.341648293437914e-06</v>
+        <v>4.898874671678586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.371419270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442182.8715142086</v>
+        <v>494672.5666365718</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.1967474396579</v>
+        <v>287.0472431142567</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.171448332689</v>
+        <v>392.7507016595391</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.8470153691271</v>
+        <v>355.2671259222237</v>
       </c>
       <c r="AD3" t="n">
-        <v>255196.7474396579</v>
+        <v>287047.2431142567</v>
       </c>
       <c r="AE3" t="n">
-        <v>349171.448332689</v>
+        <v>392750.7016595391</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.838210515906156e-06</v>
+        <v>5.93771389504917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.082356770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>315847.0153691271</v>
+        <v>355267.1259222237</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.5059761962681</v>
+        <v>255.4417232168838</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.8107370193504</v>
+        <v>349.5066349986578</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.6245894863791</v>
+        <v>316.1502122901334</v>
       </c>
       <c r="AD4" t="n">
-        <v>223505.9761962681</v>
+        <v>255441.7232168838</v>
       </c>
       <c r="AE4" t="n">
-        <v>305810.7370193504</v>
+        <v>349506.6349986579</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.954980060318274e-06</v>
+        <v>6.18200308448339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.841471354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>276624.5894863791</v>
+        <v>316150.2122901333</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.7717152415773</v>
+        <v>256.707462262193</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.5425770216071</v>
+        <v>351.2384750009146</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.1911451094737</v>
+        <v>317.716767913228</v>
       </c>
       <c r="AD5" t="n">
-        <v>224771.7152415772</v>
+        <v>256707.4622621929</v>
       </c>
       <c r="AE5" t="n">
-        <v>307542.5770216071</v>
+        <v>351238.4750009146</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.955298233463811e-06</v>
+        <v>6.182668722601739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.841471354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>278191.1451094737</v>
+        <v>317716.767913228</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.6451286748817</v>
+        <v>315.621328631886</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.7815815409124</v>
+        <v>431.8470260644439</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.9175148114091</v>
+        <v>390.6321519979603</v>
       </c>
       <c r="AD2" t="n">
-        <v>274645.1286748816</v>
+        <v>315621.328631886</v>
       </c>
       <c r="AE2" t="n">
-        <v>375781.5815409124</v>
+        <v>431847.0260644439</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619369782634662e-06</v>
+        <v>5.694132115368973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.818033854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>339917.5148114092</v>
+        <v>390632.1519979603</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0678226154955</v>
+        <v>248.9586817179277</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6875742068804</v>
+        <v>340.6362516081853</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5173916861793</v>
+        <v>308.1264058407834</v>
       </c>
       <c r="AD3" t="n">
-        <v>208067.8226154955</v>
+        <v>248958.6817179277</v>
       </c>
       <c r="AE3" t="n">
-        <v>284687.5742068804</v>
+        <v>340636.2516081852</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990854016519519e-06</v>
+        <v>6.501685260610412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>257517.3916861793</v>
+        <v>308126.4058407834</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.3319528589732</v>
+        <v>250.2228119614053</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.4172129754959</v>
+        <v>342.3658903768009</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.0819561582821</v>
+        <v>309.6909703128861</v>
       </c>
       <c r="AD4" t="n">
-        <v>209331.9528589732</v>
+        <v>250222.8119614053</v>
       </c>
       <c r="AE4" t="n">
-        <v>286417.212975496</v>
+        <v>342365.8903768009</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.992170558399796e-06</v>
+        <v>6.50454723277311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.968424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>259081.9561582821</v>
+        <v>309690.9703128861</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.132801488825</v>
+        <v>218.7552743665179</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.1480870640926</v>
+        <v>299.3106171897165</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.3199187549049</v>
+        <v>270.744831970308</v>
       </c>
       <c r="AD2" t="n">
-        <v>190132.801488825</v>
+        <v>218755.2743665179</v>
       </c>
       <c r="AE2" t="n">
-        <v>260148.0870640926</v>
+        <v>299310.6171897165</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.945622669812542e-06</v>
+        <v>7.006242944513934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235319.9187549049</v>
+        <v>270744.831970308</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.3618230003409</v>
+        <v>707.8075123055168</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.8537381677227</v>
+        <v>968.4534646000124</v>
       </c>
       <c r="AC2" t="n">
-        <v>804.9273463145601</v>
+        <v>876.0256251715609</v>
       </c>
       <c r="AD2" t="n">
-        <v>650361.823000341</v>
+        <v>707807.5123055167</v>
       </c>
       <c r="AE2" t="n">
-        <v>889853.7381677227</v>
+        <v>968453.4646000124</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71388727414779e-06</v>
+        <v>3.325932272879255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.352213541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>804927.34631456</v>
+        <v>876025.6251715609</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.1941882015485</v>
+        <v>432.2018725515911</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.4079259824836</v>
+        <v>591.3576694259954</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.9774151518965</v>
+        <v>534.9193234316792</v>
       </c>
       <c r="AD3" t="n">
-        <v>386194.1882015485</v>
+        <v>432201.8725515911</v>
       </c>
       <c r="AE3" t="n">
-        <v>528407.9259824835</v>
+        <v>591357.6694259953</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340789502786311e-06</v>
+        <v>4.542485068164783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.847330729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>477977.4151518965</v>
+        <v>534919.3234316793</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.5328488576699</v>
+        <v>368.0173664151101</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.3543582378642</v>
+        <v>503.5375965094969</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.8005387850062</v>
+        <v>455.4806750180852</v>
       </c>
       <c r="AD4" t="n">
-        <v>333532.8488576699</v>
+        <v>368017.3664151101</v>
       </c>
       <c r="AE4" t="n">
-        <v>456354.3582378642</v>
+        <v>503537.5965094969</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.573489780240416e-06</v>
+        <v>4.994058152559962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.228841145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>412800.5387850062</v>
+        <v>455480.6750180852</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.6551463922007</v>
+        <v>344.5774898876717</v>
       </c>
       <c r="AB5" t="n">
-        <v>408.633147028972</v>
+        <v>471.4661233502861</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.6337729967501</v>
+        <v>426.4700582445941</v>
       </c>
       <c r="AD5" t="n">
-        <v>298655.1463922007</v>
+        <v>344577.4898876717</v>
       </c>
       <c r="AE5" t="n">
-        <v>408633.147028972</v>
+        <v>471466.123350286</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.677776531752855e-06</v>
+        <v>5.196434748571173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.986328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>369633.7729967501</v>
+        <v>426470.0582445941</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.1811216608112</v>
+        <v>312.750890564272</v>
       </c>
       <c r="AB6" t="n">
-        <v>380.6196831412623</v>
+        <v>427.9195660655442</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.2938747853398</v>
+        <v>387.079523269131</v>
       </c>
       <c r="AD6" t="n">
-        <v>278181.1216608112</v>
+        <v>312750.8905642719</v>
       </c>
       <c r="AE6" t="n">
-        <v>380619.6831412623</v>
+        <v>427919.5660655443</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.759807564812216e-06</v>
+        <v>5.355622382638538e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>344293.8747853398</v>
+        <v>387079.523269131</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.505628831795</v>
+        <v>297.0753977352558</v>
       </c>
       <c r="AB7" t="n">
-        <v>359.1717822986661</v>
+        <v>406.4716652229479</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.8929314968431</v>
+        <v>367.6785799806343</v>
       </c>
       <c r="AD7" t="n">
-        <v>262505.628831795</v>
+        <v>297075.3977352558</v>
       </c>
       <c r="AE7" t="n">
-        <v>359171.7822986661</v>
+        <v>406471.665222948</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826771673432102e-06</v>
+        <v>5.485571471673122e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.670572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>324892.9314968431</v>
+        <v>367678.5799806343</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>265.8538696987198</v>
+        <v>300.4236386021805</v>
       </c>
       <c r="AB8" t="n">
-        <v>363.7529931667544</v>
+        <v>411.0528760910365</v>
       </c>
       <c r="AC8" t="n">
-        <v>329.036918029451</v>
+        <v>371.8225665132421</v>
       </c>
       <c r="AD8" t="n">
-        <v>265853.8696987198</v>
+        <v>300423.6386021805</v>
       </c>
       <c r="AE8" t="n">
-        <v>363752.9931667544</v>
+        <v>411052.8760910365</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.803432712045466e-06</v>
+        <v>5.44028039211254e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.7177734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>329036.918029451</v>
+        <v>371822.5665132421</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>933.8460166616795</v>
+        <v>993.7802596908529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1277.72931837513</v>
+        <v>1359.733993799835</v>
       </c>
       <c r="AC2" t="n">
-        <v>1155.784625533768</v>
+        <v>1229.962889830224</v>
       </c>
       <c r="AD2" t="n">
-        <v>933846.0166616795</v>
+        <v>993780.2596908528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1277729.31837513</v>
+        <v>1359733.993799835</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401032949409577e-06</v>
+        <v>2.628887339187336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02376302083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1155784.625533768</v>
+        <v>1229962.889830224</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.8609004763222</v>
+        <v>536.6376310922277</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.88105105251</v>
+        <v>734.2512816417885</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.0439823205089</v>
+        <v>664.1753698500415</v>
       </c>
       <c r="AD3" t="n">
-        <v>488860.9004763222</v>
+        <v>536637.6310922278</v>
       </c>
       <c r="AE3" t="n">
-        <v>668881.0510525099</v>
+        <v>734251.2816417885</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.091870112217875e-06</v>
+        <v>3.925168823153998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>605043.9823205089</v>
+        <v>664175.3698500416</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.4961923279394</v>
+        <v>439.5420252948845</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.0812913387621</v>
+        <v>601.4007902340539</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.3914277443487</v>
+        <v>544.0039428854254</v>
       </c>
       <c r="AD4" t="n">
-        <v>403496.1923279394</v>
+        <v>439542.0252948845</v>
       </c>
       <c r="AE4" t="n">
-        <v>552081.291338762</v>
+        <v>601400.790234054</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.34846677268953e-06</v>
+        <v>4.406644802913045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5771484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>499391.4277443487</v>
+        <v>544003.9428854254</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>362.6187683643194</v>
+        <v>398.4940091306722</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.1509964870682</v>
+        <v>545.2370836075131</v>
       </c>
       <c r="AC5" t="n">
-        <v>448.7990417346388</v>
+        <v>493.2004215930644</v>
       </c>
       <c r="AD5" t="n">
-        <v>362618.7683643194</v>
+        <v>398494.0091306722</v>
       </c>
       <c r="AE5" t="n">
-        <v>496150.9964870682</v>
+        <v>545237.0836075131</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514628293579272e-06</v>
+        <v>4.718428989509971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.142578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>448799.0417346387</v>
+        <v>493200.4215930644</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.3341278263405</v>
+        <v>386.2093685926934</v>
       </c>
       <c r="AB6" t="n">
-        <v>479.3426093429147</v>
+        <v>528.4286964633595</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.5948234688037</v>
+        <v>477.9962033272294</v>
       </c>
       <c r="AD6" t="n">
-        <v>350334.1278263406</v>
+        <v>386209.3685926934</v>
       </c>
       <c r="AE6" t="n">
-        <v>479342.6093429147</v>
+        <v>528428.6964633595</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563878909993765e-06</v>
+        <v>4.810842463435616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.023763020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>433594.8234688037</v>
+        <v>477996.2033272294</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>322.1019654004397</v>
+        <v>358.0624575128132</v>
       </c>
       <c r="AB7" t="n">
-        <v>440.7141191966951</v>
+        <v>489.9168509697893</v>
       </c>
       <c r="AC7" t="n">
-        <v>398.6529822067128</v>
+        <v>443.1598743158508</v>
       </c>
       <c r="AD7" t="n">
-        <v>322101.9654004397</v>
+        <v>358062.4575128132</v>
       </c>
       <c r="AE7" t="n">
-        <v>440714.1191966951</v>
+        <v>489916.8509697893</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62356800002212e-06</v>
+        <v>4.922842608135483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.887044270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>398652.9822067128</v>
+        <v>443159.8743158508</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.7009314811861</v>
+        <v>341.6614235935596</v>
       </c>
       <c r="AB8" t="n">
-        <v>418.2735010258223</v>
+        <v>467.4762327989164</v>
       </c>
       <c r="AC8" t="n">
-        <v>378.3540651384627</v>
+        <v>422.8609572476007</v>
       </c>
       <c r="AD8" t="n">
-        <v>305700.9314811861</v>
+        <v>341661.4235935595</v>
       </c>
       <c r="AE8" t="n">
-        <v>418273.5010258222</v>
+        <v>467476.2327989164</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.680600024039673e-06</v>
+        <v>5.029857054820093e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>378354.0651384627</v>
+        <v>422860.9572476007</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>297.4921580734622</v>
+        <v>333.4526501858356</v>
       </c>
       <c r="AB9" t="n">
-        <v>407.0418951038505</v>
+        <v>456.2446268769448</v>
       </c>
       <c r="AC9" t="n">
-        <v>368.1943879220262</v>
+        <v>412.701280031164</v>
       </c>
       <c r="AD9" t="n">
-        <v>297492.1580734622</v>
+        <v>333452.6501858356</v>
       </c>
       <c r="AE9" t="n">
-        <v>407041.8951038506</v>
+        <v>456244.6268769448</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.696732210533823e-06</v>
+        <v>5.060127364198436e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.7275390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>368194.3879220262</v>
+        <v>412701.280031164</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>291.3219116331311</v>
+        <v>327.2824037455045</v>
       </c>
       <c r="AB10" t="n">
-        <v>398.5994917121284</v>
+        <v>447.8022234852226</v>
       </c>
       <c r="AC10" t="n">
-        <v>360.5577156610224</v>
+        <v>405.0646077701603</v>
       </c>
       <c r="AD10" t="n">
-        <v>291321.9116331311</v>
+        <v>327282.4037455045</v>
       </c>
       <c r="AE10" t="n">
-        <v>398599.4917121284</v>
+        <v>447802.2234852226</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.714382720462716e-06</v>
+        <v>5.093246643871209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>360557.7156610223</v>
+        <v>405064.6077701602</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>292.1484534345933</v>
+        <v>328.1089455469667</v>
       </c>
       <c r="AB11" t="n">
-        <v>399.7304026693398</v>
+        <v>448.9331344424339</v>
       </c>
       <c r="AC11" t="n">
-        <v>361.5806940637209</v>
+        <v>406.0875861728588</v>
       </c>
       <c r="AD11" t="n">
-        <v>292148.4534345933</v>
+        <v>328108.9455469667</v>
       </c>
       <c r="AE11" t="n">
-        <v>399730.4026693397</v>
+        <v>448933.1344424339</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.713718453960016e-06</v>
+        <v>5.092000219367396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.691731770833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>361580.6940637209</v>
+        <v>406087.5861728588</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.3668351121763</v>
+        <v>214.8475035104271</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.3635698417394</v>
+        <v>293.9638327057329</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.8965905446486</v>
+        <v>265.9083370932149</v>
       </c>
       <c r="AD2" t="n">
-        <v>187366.8351121763</v>
+        <v>214847.5035104271</v>
       </c>
       <c r="AE2" t="n">
-        <v>256363.5698417394</v>
+        <v>293963.8327057329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.793038339340876e-06</v>
+        <v>6.985176924320033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.106119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>231896.5905446486</v>
+        <v>265908.3370932149</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.4195101582222</v>
+        <v>440.6752980555938</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.7669067098579</v>
+        <v>602.9513840217221</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.8705563151152</v>
+        <v>545.4065501782707</v>
       </c>
       <c r="AD2" t="n">
-        <v>397419.5101582222</v>
+        <v>440675.2980555939</v>
       </c>
       <c r="AE2" t="n">
-        <v>543766.906709858</v>
+        <v>602951.3840217221</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.212515580459618e-06</v>
+        <v>4.556196735671415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>491870.5563151151</v>
+        <v>545406.5501782707</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.1319032372256</v>
+        <v>310.4884928142338</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.5523403227486</v>
+        <v>424.8240536539975</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.232959070909</v>
+        <v>384.2794422175633</v>
       </c>
       <c r="AD3" t="n">
-        <v>278131.9032372256</v>
+        <v>310488.4928142338</v>
       </c>
       <c r="AE3" t="n">
-        <v>380552.3403227486</v>
+        <v>424824.0536539975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.736119881739857e-06</v>
+        <v>5.634446411897857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.217447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>344232.959070909</v>
+        <v>384279.4422175633</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.5755397585594</v>
+        <v>267.0173806815911</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.9566022399477</v>
+        <v>365.3449602240007</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.3249545876828</v>
+        <v>330.4769499850934</v>
       </c>
       <c r="AD4" t="n">
-        <v>234575.5397585594</v>
+        <v>267017.3806815911</v>
       </c>
       <c r="AE4" t="n">
-        <v>320956.6022399477</v>
+        <v>365344.9602240007</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.908459900265031e-06</v>
+        <v>5.989343361218698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.847981770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>290324.9545876828</v>
+        <v>330476.9499850934</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.4080949939855</v>
+        <v>263.8499359170171</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.6227645752591</v>
+        <v>361.0111225593098</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.4047323071313</v>
+        <v>326.5567277045413</v>
       </c>
       <c r="AD5" t="n">
-        <v>231408.0949939855</v>
+        <v>263849.9359170171</v>
       </c>
       <c r="AE5" t="n">
-        <v>316622.7645752591</v>
+        <v>361011.1225593098</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.930407385947436e-06</v>
+        <v>6.034539455431782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.804036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>286404.7323071313</v>
+        <v>326556.7277045413</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.6812759378981</v>
+        <v>593.9024717271941</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.6792425619955</v>
+        <v>812.6035629450178</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.4670481841798</v>
+        <v>735.0498193938081</v>
       </c>
       <c r="AD2" t="n">
-        <v>537681.2759378981</v>
+        <v>593902.4717271941</v>
       </c>
       <c r="AE2" t="n">
-        <v>735679.2425619955</v>
+        <v>812603.5629450177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89472162049059e-06</v>
+        <v>3.753792370767368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.644205729166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>665467.0481841798</v>
+        <v>735049.8193938081</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.3025660182381</v>
+        <v>377.1718288591304</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.7217162664556</v>
+        <v>516.0631358917851</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.8921349245535</v>
+        <v>466.8107945014327</v>
       </c>
       <c r="AD3" t="n">
-        <v>343302.5660182381</v>
+        <v>377171.8288591304</v>
       </c>
       <c r="AE3" t="n">
-        <v>469721.7162664556</v>
+        <v>516063.1358917851</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.482457626081961e-06</v>
+        <v>4.918205606967696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5966796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>424892.1349245536</v>
+        <v>466810.7945014327</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.6259633839405</v>
+        <v>326.5005109898915</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.3330675625385</v>
+        <v>446.732403322319</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.5574204127261</v>
+        <v>404.096889742102</v>
       </c>
       <c r="AD4" t="n">
-        <v>281625.9633839405</v>
+        <v>326500.5109898915</v>
       </c>
       <c r="AE4" t="n">
-        <v>385333.0675625385</v>
+        <v>446732.403322319</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73522133881018e-06</v>
+        <v>5.418977058660083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.987955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>348557.4204127261</v>
+        <v>404096.889742102</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.0695354358626</v>
+        <v>297.8534574221833</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.3115883090413</v>
+        <v>407.5362408121731</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.8285174248247</v>
+        <v>368.641553969765</v>
       </c>
       <c r="AD5" t="n">
-        <v>264069.5354358626</v>
+        <v>297853.4574221833</v>
       </c>
       <c r="AE5" t="n">
-        <v>361311.5883090413</v>
+        <v>407536.2408121731</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.80686455674907e-06</v>
+        <v>5.560915463757606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.8349609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>326828.5174248247</v>
+        <v>368641.553969765</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.3047893967516</v>
+        <v>285.0887113830755</v>
       </c>
       <c r="AB6" t="n">
-        <v>343.8462996373165</v>
+        <v>390.070952140615</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.030091391346</v>
+        <v>352.8431279363337</v>
       </c>
       <c r="AD6" t="n">
-        <v>251304.7893967516</v>
+        <v>285088.7113830755</v>
       </c>
       <c r="AE6" t="n">
-        <v>343846.2996373165</v>
+        <v>390070.952140615</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.85637082532482e-06</v>
+        <v>5.658996496493535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.734049479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>311030.0913913461</v>
+        <v>352843.1279363337</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.5707635583854</v>
+        <v>286.3546855447092</v>
       </c>
       <c r="AB7" t="n">
-        <v>345.5784613361012</v>
+        <v>391.8031138394006</v>
       </c>
       <c r="AC7" t="n">
-        <v>312.5969380087035</v>
+        <v>354.4099745536913</v>
       </c>
       <c r="AD7" t="n">
-        <v>252570.7635583854</v>
+        <v>286354.6855447092</v>
       </c>
       <c r="AE7" t="n">
-        <v>345578.4613361012</v>
+        <v>391803.1138394006</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854458997879822e-06</v>
+        <v>5.655208814335035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.7373046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>312596.9380087035</v>
+        <v>354409.9745536913</v>
       </c>
     </row>
   </sheetData>
